--- a/observations/acc_payload_data.xlsx
+++ b/observations/acc_payload_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\github\OMNIS\observations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0ADFCF2-4975-4443-ADEA-F18CBC5DFFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B09A69D-B0ED-4689-8D0D-0C452EF8A942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32640" yWindow="3105" windowWidth="28830" windowHeight="19215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
   <si>
     <t>Payload</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>SNR = 10 dB</t>
+  </si>
+  <si>
+    <t>ENT-3</t>
+  </si>
+  <si>
+    <t>ENT-6</t>
+  </si>
+  <si>
+    <t>ENT-12</t>
   </si>
 </sst>
 </file>
@@ -134,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -149,6 +158,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -432,7 +444,7 @@
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F8"/>
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -486,10 +498,15 @@
         <v>8</v>
       </c>
       <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" spans="1:20" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
@@ -536,17 +553,25 @@
         <v>0</v>
       </c>
       <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+      <c r="Q2">
+        <v>19.68</v>
+      </c>
+      <c r="R2">
+        <v>8.56</v>
+      </c>
+      <c r="S2">
+        <v>3.38</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:20" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>53.915999999999997</v>
       </c>
       <c r="B3" s="4">
-        <v>40.96</v>
+        <v>40.29</v>
       </c>
       <c r="C3" s="2">
         <v>26.952000000000002</v>
@@ -566,7 +591,7 @@
         <v>53.915999999999997</v>
       </c>
       <c r="J3" s="4">
-        <v>40.96</v>
+        <v>40.29</v>
       </c>
       <c r="K3" s="2">
         <v>26.952000000000002</v>
@@ -582,9 +607,15 @@
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
+      <c r="Q3">
+        <v>23.62</v>
+      </c>
+      <c r="R3">
+        <v>10.27</v>
+      </c>
+      <c r="S3">
+        <v>4.0599999999999996</v>
+      </c>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -628,9 +659,15 @@
       </c>
       <c r="O4" s="4"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
+      <c r="Q4" s="6">
+        <v>29.52</v>
+      </c>
+      <c r="R4">
+        <v>12.84</v>
+      </c>
+      <c r="S4">
+        <v>5.07</v>
+      </c>
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -650,7 +687,6 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -700,9 +736,15 @@
         <v>9</v>
       </c>
       <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
+      <c r="Q6" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -746,9 +788,15 @@
       </c>
       <c r="O7" s="4"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
+      <c r="Q7" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="S7" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -792,9 +840,15 @@
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
+      <c r="Q8" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="S8" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
@@ -968,7 +1022,7 @@
         <v>53.915999999999997</v>
       </c>
       <c r="B14" s="4">
-        <v>40.96</v>
+        <v>40.29</v>
       </c>
       <c r="C14" s="2">
         <v>26.952000000000002</v>
@@ -988,7 +1042,7 @@
         <v>53.915999999999997</v>
       </c>
       <c r="J14" s="4">
-        <v>40.96</v>
+        <v>40.29</v>
       </c>
       <c r="K14" s="2">
         <v>26.952000000000002</v>
